--- a/Vasarlok4.xlsx
+++ b/Vasarlok4.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13d\Desktop\SK\Projekt\Excelek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C0B1E4-B065-481B-A9B5-67A07CD50331}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A66328A-08CB-4F15-ACA4-8B7DEE1733F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Vásárlók" sheetId="1" r:id="rId1"/>
+    <sheet name="Vásárlás" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
   <si>
     <t>Vásárló azonosító</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Megvásárolt Autók</t>
-  </si>
-  <si>
     <t>Farkas Anikó</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t>kovacs.zsolt@email.hu</t>
+  </si>
+  <si>
+    <t>Adás-Vételi</t>
   </si>
 </sst>
 </file>
@@ -501,22 +501,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -530,287 +530,307 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>30</v>
       </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
         <v>26</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>33</v>
       </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
         <v>26</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="D20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
         <v>29</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>30</v>
       </c>
-      <c r="D21" t="s">
-        <v>31</v>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
